--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD006C3C-2C26-49D8-9265-3B8AB2116ED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0EA954-4D7D-4027-8E2A-019202E1A368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s=0.10, S0=2" sheetId="1" r:id="rId1"/>
@@ -9249,7 +9249,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>sedimentation rate (m/kyear)</a:t>
+                  <a:t>sedimentation rate (m/kyr)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17715,7 +17715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19043714-D457-4B69-92F0-93C873DDFA30}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -22345,7 +22345,7 @@
   <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -24462,7 +24462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC70F79-82F4-436B-BECE-EE6103717C3D}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
